--- a/docs/InformacionTest.xlsx
+++ b/docs/InformacionTest.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ESTADO BD DESPUÉS</t>
   </si>
@@ -83,6 +83,24 @@
   </si>
   <si>
     <t>Se borran las reservas relacionadas con la convencion</t>
+  </si>
+  <si>
+    <t>Crear mantenimiento (demoMantenimiento)</t>
+  </si>
+  <si>
+    <t>No existe mantenimiento para la serie de habitaciones o servicios dados</t>
+  </si>
+  <si>
+    <t>Se crea mantenimiento para la serie de habitaciones o servicios dados</t>
+  </si>
+  <si>
+    <t>Acabar mantenimiento</t>
+  </si>
+  <si>
+    <t>Existe el mantenimiento y esta sucediendo</t>
+  </si>
+  <si>
+    <t>Las habitaciones vuelven a estar disponibles</t>
   </si>
 </sst>
 </file>
@@ -153,16 +171,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -492,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:J21"/>
+  <dimension ref="B4:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:J13"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -508,41 +523,41 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
@@ -555,9 +570,9 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -566,11 +581,11 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
@@ -583,9 +598,9 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -594,11 +609,11 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
@@ -611,9 +626,9 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -622,11 +637,11 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
@@ -639,9 +654,9 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -650,20 +665,26 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -672,20 +693,26 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -693,70 +720,20 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="22">
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="E16:G17"/>
-    <mergeCell ref="E18:G19"/>
-    <mergeCell ref="E20:G21"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H16:J17"/>
-    <mergeCell ref="H18:J19"/>
-    <mergeCell ref="H20:J21"/>
     <mergeCell ref="B6:D7"/>
     <mergeCell ref="B8:D9"/>
     <mergeCell ref="B10:D11"/>
     <mergeCell ref="B12:D13"/>
     <mergeCell ref="B14:D15"/>
     <mergeCell ref="B16:D17"/>
-    <mergeCell ref="B18:D19"/>
-    <mergeCell ref="B20:D21"/>
     <mergeCell ref="E6:G7"/>
     <mergeCell ref="E8:G9"/>
     <mergeCell ref="E10:G11"/>
